--- a/base/data_set/account_queue.xlsx
+++ b/base/data_set/account_queue.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,6 +394,10 @@
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -421,14 +425,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1555</v>
+        <v>1903</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3110</v>
+        <v>3806</v>
       </c>
       <c r="D2" s="3" t="n">
         <v/>
@@ -437,17 +441,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>403</v>
+        <v>2362</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>3513</v>
+        <v>2362</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>11962</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -457,13 +461,29 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>1801</v>
+        <v>2550</v>
       </c>
       <c r="C4" s="3" t="n">
         <v/>
       </c>
       <c r="D4" s="3" t="n">
-        <v>7634</v>
+        <v>12702</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v/>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>8329</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/account_queue.xlsx
+++ b/base/data_set/account_queue.xlsx
@@ -370,7 +370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,10 +394,6 @@
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="15" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -425,14 +421,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1903</v>
+        <v>334</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3806</v>
+        <v>668</v>
       </c>
       <c r="D2" s="3" t="n">
         <v/>
@@ -441,49 +437,33 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2362</v>
+        <v>1171</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2362</v>
+        <v>1839</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v/>
+        <v>9908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2550</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="n">
         <v/>
       </c>
       <c r="D4" s="3" t="n">
-        <v>12702</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1875</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v/>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>8329</v>
+        <v>7398</v>
       </c>
     </row>
   </sheetData>

--- a/base/data_set/account_queue.xlsx
+++ b/base/data_set/account_queue.xlsx
@@ -425,10 +425,10 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>334</v>
+        <v>1558</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>668</v>
+        <v>3116</v>
       </c>
       <c r="D2" s="3" t="n">
         <v/>
@@ -441,13 +441,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1171</v>
+        <v>602</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1839</v>
+        <v>3718</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>9908</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="4">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>141</v>
+        <v>901</v>
       </c>
       <c r="C4" s="3" t="n">
         <v/>
       </c>
       <c r="D4" s="3" t="n">
-        <v>7398</v>
+        <v>9751</v>
       </c>
     </row>
   </sheetData>
